--- a/docs/PTA3_ADDC_10_4/PTA3_ADDC_10_4_01.08.24_output.xlsx
+++ b/docs/PTA3_ADDC_10_4/PTA3_ADDC_10_4_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,764 +505,4512 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1731702086.4909072</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1731702087.6904645</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702086.4909072.png</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731702087.6904645.png</t>
-        </is>
-      </c>
+          <t>1731870889.6837425</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>3036.2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3033.2</v>
+          <t>./test_images/SBER1731870889.6837425.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>288.85</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1</v>
+        <v>287.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-1.100000000000023</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1731702089.1752737</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1731702090.2990897</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702089.1752737.png</t>
+          <t>1731870898.7757506</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702090.2990897.png</t>
+          <t>1731870901.447551</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>./test_images/GAZP1731870898.7757506.png</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>3025</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3029.1</v>
+          <t>./test_images/GAZP1731870901.447551.png</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K4" t="n">
-        <v>4.099999999999909</v>
+        <v>134.32</v>
       </c>
       <c r="L4" t="n">
-        <v>0.14</v>
+        <v>133.41</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.9099999999999966</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1731702090.9982784</t>
-        </is>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1731702091.0666885</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702090.9982784.png</t>
+          <t>1731870903.9964354</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702091.0666885.png</t>
+          <t>1731870905.0104227</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731870903.9964354.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731870905.0104227.png</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>3024.7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3027.9</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K5" t="n">
-        <v>3.200000000000273</v>
+        <v>132.91</v>
       </c>
       <c r="L5" t="n">
-        <v>0.11</v>
+        <v>133.52</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6100000000000136</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1731702091.1085956</t>
-        </is>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1731702091.2911077</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702091.1085956.png</t>
+          <t>1731870907.9297001</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702091.2911077.png</t>
+          <t>1731870911.2875216</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>./test_images/GAZP1731870907.9297001.png</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>3030.65</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3030.15</v>
+          <t>./test_images/GAZP1731870911.2875216.png</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K6" t="n">
-        <v>0.5</v>
+        <v>132.7</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02</v>
+        <v>133.49</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7900000000000205</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1731702092.5074642</t>
-        </is>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1731702092.6042066</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702092.5074642.png</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731702092.6042066.png</t>
-        </is>
-      </c>
+          <t>1731870913.9139483</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731870913.9139483.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>3029</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3029.2</v>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K7" t="n">
-        <v>0.1999999999998181</v>
+        <v>132.61</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01</v>
+        <v>132.1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.5100000000000193</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1731702093.0251458</t>
-        </is>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1731702093.2246122</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702093.0251458.png</t>
+          <t>1731870921.8403811</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702093.2246122.png</t>
+          <t>1731870922.1289954</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731870921.8403811.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870922.1289954.png</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>3022</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3026.9</v>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K8" t="n">
-        <v>4.900000000000091</v>
+        <v>6741</v>
       </c>
       <c r="L8" t="n">
-        <v>0.16</v>
+        <v>6757</v>
+      </c>
+      <c r="M8" t="n">
+        <v>16</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1731702093.9984264</t>
-        </is>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1731702095.5921175</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702093.9984264.png</t>
+          <t>1731870923.2284005</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702095.5921175.png</t>
+          <t>1731870923.790945</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>./test_images/LKOH1731870923.2284005.png</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>3017.25</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3019.9</v>
+          <t>./test_images/LKOH1731870923.790945.png</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K9" t="n">
-        <v>2.650000000000091</v>
+        <v>6770</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09</v>
+        <v>6755</v>
+      </c>
+      <c r="M9" t="n">
+        <v>15</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1731702096.630374</t>
-        </is>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1731702098.1576743</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702096.630374.png</t>
+          <t>1731870923.9017353</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702098.1576743.png</t>
+          <t>1731870924.572792</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>./test_images/LKOH1731870923.9017353.png</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>3022.15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3024.65</v>
+          <t>./test_images/LKOH1731870924.572792.png</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K10" t="n">
-        <v>-2.5</v>
+        <v>6740</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.08</v>
+        <v>6749</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1731702099.0190153</t>
-        </is>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1731702101.816779</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702099.0190153.png</t>
+          <t>1731870924.586728</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702101.816779.png</t>
+          <t>1731870925.2131553</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>./test_images/LKOH1731870924.586728.png</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>3019.95</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3005.75</v>
+          <t>./test_images/LKOH1731870925.2131553.png</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K11" t="n">
-        <v>-14.19999999999982</v>
+        <v>6749</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.47</v>
+        <v>6755</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-6</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1731702101.9594247</t>
-        </is>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1731702102.43313</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702101.9594247.png</t>
+          <t>1731870930.1979153</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702102.43313.png</t>
+          <t>1731870936.455098</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>./test_images/LKOH1731870930.1979153.png</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>3005.75</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3004.3</v>
+          <t>./test_images/LKOH1731870936.455098.png</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K12" t="n">
-        <v>1.449999999999818</v>
+        <v>6720</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05</v>
+        <v>6716</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1731702102.4480968</t>
-        </is>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1731702103.49707</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702102.4480968.png</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731702103.49707.png</t>
-        </is>
-      </c>
+          <t>1731870942.2209551</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731870942.2209551.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>3004.3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3002.7</v>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K13" t="n">
-        <v>-1.600000000000364</v>
+        <v>6700</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.05</v>
+        <v>6687</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-13</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1731702103.8969686</t>
-        </is>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1731702104.0795078</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702103.8969686.png</t>
+          <t>1731870947.2814612</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702104.0795078.png</t>
+          <t>1731870950.3452864</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731870947.2814612.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870950.3452864.png</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>3003.35</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3001.05</v>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K14" t="n">
-        <v>2.299999999999727</v>
+        <v>516.65</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08</v>
+        <v>515.05</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.600000000000023</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1731702104.3408117</t>
-        </is>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1731702106.181952</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702104.3408117.png</t>
+          <t>1731870955.5616837</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702106.181952.png</t>
+          <t>1731870972.6489744</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731870955.5616837.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870972.6489744.png</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>3000.15</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2994.1</v>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K15" t="n">
-        <v>-6.050000000000182</v>
+        <v>513</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.2</v>
+        <v>506.25</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-6.75</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-1.32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1731870972.9972715</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1731870975.5432916</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731870972.9972715.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731870975.5432916.png</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>233.13</v>
+      </c>
+      <c r="L16" t="n">
+        <v>232.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6299999999999955</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1731870983.9606218</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1731870986.9524963</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731870983.9606218.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731870986.9524963.png</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>233.04</v>
+      </c>
+      <c r="L17" t="n">
+        <v>233</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.03999999999999204</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1731870987.5137706</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1731870995.3744195</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731870987.5137706.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731870995.3744195.png</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>232.19</v>
+      </c>
+      <c r="L18" t="n">
+        <v>230.04</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-2.150000000000006</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.9299999999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1731870996.0376818</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1731871000.3378222</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870996.0376818.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731871000.3378222.png</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1050.8</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1045.4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5.399999999999864</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1731871004.2197714</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1731871004.6854134</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731871004.2197714.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731871004.6854134.png</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1039.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1042.6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3.199999999999818</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1731871015.4169014</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731871015.4169014.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1032.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1030.6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-1.600000000000136</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1731871021.0495245</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1731871022.324134</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871021.0495245.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871022.324134.png</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>130.4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>129.44</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.960000000000008</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1731871022.7363129</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1731871027.3391721</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871022.7363129.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871027.3391721.png</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>129.32</v>
+      </c>
+      <c r="L23" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.2800000000000011</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1731871028.173436</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1731871028.6975205</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871028.173436.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871028.6975205.png</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>129.48</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.2800000000000011</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1731871032.7235854</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1731871034.638471</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871032.7235854.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871034.638471.png</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>129.92</v>
+      </c>
+      <c r="L25" t="n">
+        <v>129.66</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.2599999999999909</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1731871035.1639578</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1731871045.6049094</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871035.1639578.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871045.6049094.png</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>129.06</v>
+      </c>
+      <c r="L26" t="n">
+        <v>128.64</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.4200000000000159</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1731871046.0931118</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1731871047.6721966</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871046.0931118.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871047.6721966.png</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>166.94</v>
+      </c>
+      <c r="L27" t="n">
+        <v>165.88</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.060000000000002</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1731871059.6368504</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1731871060.318104</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871059.6368504.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871060.318104.png</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>166.4</v>
+      </c>
+      <c r="L28" t="n">
+        <v>166.4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1731871062.8622243</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1731871070.4313228</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871062.8622243.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871070.4313228.png</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>165.66</v>
+      </c>
+      <c r="L29" t="n">
+        <v>164.72</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.9399999999999977</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.5700000000000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1731871083.8647845</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1731871084.0795069</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871083.8647845.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871084.0795069.png</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>50.795</v>
+      </c>
+      <c r="L30" t="n">
+        <v>50.92</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1731871091.5873482</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871091.5873482.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>50.725</v>
+      </c>
+      <c r="L31" t="n">
+        <v>50.57</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.1550000000000011</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1731871094.57788</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1731871095.013487</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871094.57788.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871095.013487.png</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1412.4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1421.2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>8.799999999999955</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1731871111.2844656</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871111.2844656.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1416</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1412.6</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-3.400000000000091</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1731871119.9971998</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1731871121.3499694</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871119.9971998.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871121.3499694.png</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>60.87</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.3300000000000054</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1731871125.7377436</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1731871128.677529</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871125.7377436.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871128.677529.png</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>61.29</v>
+      </c>
+      <c r="L35" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.00999999999999801</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1731871134.1001291</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1731871135.2177076</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871134.1001291.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871135.2177076.png</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>61.35</v>
+      </c>
+      <c r="L36" t="n">
+        <v>61.27</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.07999999999999829</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1731871135.7934816</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1731871145.2063885</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871135.7934816.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871145.2063885.png</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="L37" t="n">
+        <v>60.69</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.3200000000000003</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1731871145.3530653</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1731871147.468996</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871145.3530653.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871147.468996.png</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>58.93</v>
+      </c>
+      <c r="L38" t="n">
+        <v>58.74</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1731871150.4220665</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1731871155.8332238</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871150.4220665.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871155.8332238.png</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="L39" t="n">
+        <v>58.55</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.04999999999999716</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1731871159.523067</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1731871159.8147268</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871159.523067.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871159.8147268.png</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="L40" t="n">
+        <v>58.26</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.03999999999999915</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1731871162.5950055</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871162.5950055.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="L41" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.5499999999999972</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1731871174.2436588</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1731871174.4495006</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871174.2436588.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871174.4495006.png</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>145.16</v>
+      </c>
+      <c r="L42" t="n">
+        <v>145.14</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.02000000000001023</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1731871174.4913723</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1731871174.8070848</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871174.4913723.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871174.8070848.png</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>145.14</v>
+      </c>
+      <c r="L43" t="n">
+        <v>144.88</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.2599999999999909</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1731871180.7366824</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1731871182.749893</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871180.7366824.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871182.749893.png</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>145.8</v>
+      </c>
+      <c r="L44" t="n">
+        <v>145.2</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.6000000000000227</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1731871183.851388</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1731871188.1721137</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871183.851388.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871188.1721137.png</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="L45" t="n">
+        <v>144.02</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.3799999999999955</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1731871189.9474418</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871189.9474418.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>143.66</v>
+      </c>
+      <c r="L46" t="n">
+        <v>142.98</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.6800000000000068</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1731871195.7324774</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1731871199.759161</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871195.7324774.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871199.759161.png</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>21.475</v>
+      </c>
+      <c r="L47" t="n">
+        <v>21.312</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.1630000000000003</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1731871202.5226061</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1731871207.9527004</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871202.5226061.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871207.9527004.png</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>21.285</v>
+      </c>
+      <c r="L48" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.07499999999999929</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1731871210.261356</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871210.261356.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>21.104</v>
+      </c>
+      <c r="L49" t="n">
+        <v>20.831</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.2729999999999997</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-1.29</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1731871227.7617931</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1731871238.1116743</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871227.7617931.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871238.1116743.png</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>681.1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>678.45</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-2.649999999999977</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1731871239.1240995</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1731871241.047976</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871239.1240995.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871241.047976.png</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>678.45</v>
+      </c>
+      <c r="L51" t="n">
+        <v>678.75</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.2999999999999545</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1731871241.284459</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871241.284459.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>679.15</v>
+      </c>
+      <c r="L52" t="n">
+        <v>679.2</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.05000000000006821</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1731871241.9103217</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731871241.9103217.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>379.23</v>
+      </c>
+      <c r="L53" t="n">
+        <v>378.22</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.009999999999991</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1731871243.4686193</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1731871243.8571148</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731871243.4686193.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731871243.8571148.png</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>0.0994</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.09976</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.0003599999999999992</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1731871247.7459927</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1731871257.830745</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731871247.7459927.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731871257.830745.png</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>0.10026</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.10052</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.0002599999999999963</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1731871261.5046897</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731871261.5046897.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>0.09960000000000001</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.09927999999999999</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.0003200000000000147</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1731871270.8186378</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1731871272.867296</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871270.8186378.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871272.867296.png</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>0.6028</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.6042000000000001</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.001400000000000068</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1731871276.682374</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1731871277.1492603</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871276.682374.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871277.1492603.png</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>0.6037</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.6038</v>
+      </c>
+      <c r="M58" t="n">
+        <v>9.999999999998899e-05</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1731871277.5564277</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1731871278.7229664</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871277.5564277.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871278.7229664.png</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>0.6038</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.6043000000000001</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.000500000000000056</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1731871279.6401696</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1731871279.722811</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871279.6401696.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871279.722811.png</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.6037</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.000299999999999967</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1731871279.8026557</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1731871280.147365</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871279.8026557.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871280.147365.png</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>0.6032000000000001</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.0007999999999999119</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1731871280.2560635</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1731871280.3859959</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871280.2560635.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871280.3859959.png</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>0.6039</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.6044</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.000500000000000056</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1731871280.6943562</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1731871282.259541</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871280.6943562.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871282.259541.png</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.6048</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.000199999999999978</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1731871286.7037585</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871286.7037585.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>0.6023000000000001</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.001000000000000112</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1731702106.4448702</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731702106.4448702.png</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1731871291.8905542</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1731871293.2782745</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871291.8905542.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871293.2782745.png</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>3036.2</v>
+      </c>
+      <c r="L65" t="n">
+        <v>3033.2</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1731871295.1880648</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1731871296.6047618</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871295.1880648.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871296.6047618.png</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>3025</v>
+      </c>
+      <c r="L66" t="n">
+        <v>3029.1</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4.099999999999909</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1731871297.4083793</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1731871297.487473</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871297.4083793.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871297.487473.png</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>3024.7</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3027.9</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3.200000000000273</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1731871297.5360384</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1731871297.781349</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871297.5360384.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871297.781349.png</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>3030.65</v>
+      </c>
+      <c r="L68" t="n">
+        <v>3030.15</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1731871299.3469114</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1731871299.4648447</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871299.3469114.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871299.4648447.png</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>3029</v>
+      </c>
+      <c r="L69" t="n">
+        <v>3029.2</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.1999999999998181</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1731871299.9772687</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1731871300.213586</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871299.9772687.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871300.213586.png</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>3022</v>
+      </c>
+      <c r="L70" t="n">
+        <v>3026.9</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4.900000000000091</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1731871301.1150994</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1731871303.0225568</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871301.1150994.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871303.0225568.png</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>3017.25</v>
+      </c>
+      <c r="L71" t="n">
+        <v>3019.9</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2.650000000000091</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1731871304.2693074</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1731871306.2079005</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871304.2693074.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871306.2079005.png</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>3022.15</v>
+      </c>
+      <c r="L72" t="n">
+        <v>3024.65</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1731871307.4253147</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1731871310.8092601</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871307.4253147.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871310.8092601.png</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>3019.95</v>
+      </c>
+      <c r="L73" t="n">
+        <v>3005.75</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-14.19999999999982</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1731871310.969982</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1731871311.6091404</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871310.969982.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871311.6091404.png</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>3005.75</v>
+      </c>
+      <c r="L74" t="n">
+        <v>3004.3</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.449999999999818</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1731871311.6250985</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1731871312.9391894</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871311.6250985.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871312.9391894.png</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>3004.3</v>
+      </c>
+      <c r="L75" t="n">
+        <v>3002.7</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-1.600000000000364</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1731871313.4182563</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1731871313.6135333</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871313.4182563.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871313.6135333.png</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>3003.35</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3001.05</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2.299999999999727</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1731871313.9176784</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1731871316.1714606</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871313.9176784.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871316.1714606.png</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>3000.15</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2994.1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>-6.050000000000182</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1731871316.4841294</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871316.4841294.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>2996.95</v>
       </c>
-      <c r="J16" t="n">
-        <v>2996.95</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
+      <c r="L78" t="n">
+        <v>2996.05</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.8999999999996362</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1731871330.128924</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1731871332.3724892</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731871330.128924.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731871332.3724892.png</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>34.61</v>
+      </c>
+      <c r="L79" t="n">
+        <v>34.935</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.3250000000000028</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1731871332.3880694</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1731871332.4878144</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731871332.3880694.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731871332.4878144.png</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>34.935</v>
+      </c>
+      <c r="L80" t="n">
+        <v>34.74</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.1950000000000003</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1731871333.45125</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731871333.45125.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>34.545</v>
+      </c>
+      <c r="L81" t="n">
+        <v>34.425</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.1200000000000045</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.35</v>
       </c>
     </row>
   </sheetData>
@@ -1266,7 +5024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1313,16 +5071,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.050000000000637</v>
+        <v>-1.150000000001</v>
       </c>
       <c r="C2" t="n">
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1464285714286169</v>
+        <v>-0.0821428571429286</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.04000000000000004</v>
+        <v>-0.01000000000000004</v>
       </c>
       <c r="F2" t="n">
         <v>-0</v>
@@ -1331,20 +5089,438 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.002799999999999914</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0003499999999999892</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.833333333333333</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.2199999999999989</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.04399999999999978</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.359999999999985</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.271999999999997</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.3500000000000014</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.08750000000000036</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.6099999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.800000000000011</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4500000000000028</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0800000000000054</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.02000000000000135</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.1849999999999987</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.06166666666666624</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.8800000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.999999999999545</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.333333333333182</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-2.400000000000091</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.8000000000000304</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.3599999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3999999999999986</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1333333333333329</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-1.480000000000018</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.4933333333333394</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.6399999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.04000000000000151</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.05999999999999994</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.0002200000000000119</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-7.333333333333729e-05</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-5.149999999999977</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-2.574999999999989</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.01500000000000057</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5.399999999999864</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.699999999999932</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.100000000000023</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-1.100000000000023</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.009999999999991</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.009999999999991</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C22" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
